--- a/Web/Content/example/ImportCarExample.xlsx
+++ b/Web/Content/example/ImportCarExample.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benson922\Documents\irentapi20\Web\Content\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD572475-15EA-4844-9ADD-FBC43760A363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="16170" windowWidth="29040" windowHeight="15840" xr2:uid="{D0FCD0EE-1E19-42CC-828C-8F74809B4291}"/>
+    <workbookView xWindow="57480" yWindow="16170" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>CarNo</t>
   </si>
@@ -109,13 +108,20 @@
   </si>
   <si>
     <t>0002659</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeekdayPrice</t>
+  </si>
+  <si>
+    <t>HolidayPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -475,23 +481,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A37267-69A6-4CBF-86F9-D061BB571514}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="A9:I23"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.453125" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +527,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -548,8 +562,14 @@
       <c r="I2">
         <v>1497</v>
       </c>
+      <c r="J2">
+        <v>2300</v>
+      </c>
+      <c r="K2">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -577,8 +597,14 @@
       <c r="I3">
         <v>1497</v>
       </c>
+      <c r="J3">
+        <v>2300</v>
+      </c>
+      <c r="K3">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -606,8 +632,14 @@
       <c r="I4">
         <v>1497</v>
       </c>
+      <c r="J4">
+        <v>2300</v>
+      </c>
+      <c r="K4">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -635,8 +667,14 @@
       <c r="I5">
         <v>1497</v>
       </c>
+      <c r="J5">
+        <v>2300</v>
+      </c>
+      <c r="K5">
+        <v>2300</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -663,6 +701,12 @@
       </c>
       <c r="I6">
         <v>1497</v>
+      </c>
+      <c r="J6">
+        <v>2300</v>
+      </c>
+      <c r="K6">
+        <v>2300</v>
       </c>
     </row>
   </sheetData>
